--- a/Mifos Automation Excels/Client/4097-CREATEGROUP-WITHOUTCLIENTATTACHED-DELETE.xlsx
+++ b/Mifos Automation Excels/Client/4097-CREATEGROUP-WITHOUTCLIENTATTACHED-DELETE.xlsx
@@ -47,10 +47,10 @@
     <t>ClickOnDeleteConfirm</t>
   </si>
   <si>
-    <t>Group4097</t>
-  </si>
-  <si>
-    <t>ClickOnCloseGroup</t>
+    <t>ClickOnDeleteButton</t>
+  </si>
+  <si>
+    <t>Grou4097</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
